--- a/_Prototype/Document/Excel 문서/캐릭터.xlsx
+++ b/_Prototype/Document/Excel 문서/캐릭터.xlsx
@@ -5,16 +5,20 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\2022\git\EscapeIsland\Document\캐릭터\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\2022\git\EscapeIsland\_Prototype\Document\Excel 문서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1E64B46-9EEC-405E-A4E7-9992CE0C028A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A70EB754-A6D6-4AD7-B771-1B3240BF0F91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{7C7DA98A-81B2-4BE7-8537-AA474E77B845}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{7C7DA98A-81B2-4BE7-8537-AA474E77B845}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="캐릭터 설명 &amp; 스킬 설명" sheetId="1" r:id="rId1"/>
+    <sheet name="스킬 참고 이미지" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'캐릭터 설명 &amp; 스킬 설명'!$F$3:$F$15</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -35,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="50">
   <si>
     <t>캐릭터 이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -164,12 +168,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>상대팀 한명을 잡고 상대방 팀의
- 아이템(랜덤으로 결정)이 얼마나
-모였는지 심문합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>역할 분류</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -183,6 +181,81 @@
   </si>
   <si>
     <t>유틸형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테러리스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도둑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>덫을 사용하여 상대팀의 이동을 방해합니다.
+덫을 10회 사용하면 상대편 배에 불을 지를 수 있습니다. 
+(불을 지르면 배에 있는 재료들이 20초당 하나씩 사라집니다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상대팀 한명을 잡고 상대방 팀의 아이템(랜덤으로 결정)이 
+얼마나 모였는지 심문합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상대편의 배에 들어가 상대가 모은 재료들중 
+한 종류의 아이템을 뺴온다.
+쿨타임 : 30초
+[쿨타임이 도는 타이밍은 상대편의 배를 나왔을 때로 
+가능할까요?]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기타를 쳐서 범위 안의 
+아군 이속 15% 증가
+적군 이속 15% 감소 시킵니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>둔화 화살을 쏴서 맞추면 맞은 
+적의 이동속도가 70% 감소합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>디스렙을 하며
+적팀의 미션 수행을 한번 끊을 수 있습니다.
+쿨타임 : 50초</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공간이동
+원의 반지름 만큼 공간 이동이 가능합니다.
+이 스킬을 사용하면 벽도 넘을 수 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마술사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연구소
+관리인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연구소의 문을 열고 닫을 수 있습니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유틸형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">캐릭터 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -291,23 +364,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>280145</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>773206</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>134471</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>649941</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>4101136</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>2442882</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>4221358</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>2527465</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="그림 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E4E5AB7-488B-7333-409B-2FB445E5F7F4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4927A93C-043E-456C-9546-60FA12210C04}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -323,8 +396,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8269939" y="1479177"/>
-          <a:ext cx="3820991" cy="1669676"/>
+          <a:off x="9087971" y="11289366"/>
+          <a:ext cx="4045324" cy="1877524"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -335,23 +408,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>134471</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>493059</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>649941</xdr:rowOff>
+      <xdr:rowOff>403412</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>4179795</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3938121</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>2527465</xdr:rowOff>
+      <xdr:rowOff>2594468</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="3" name="그림 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{160D71E7-25E3-C60C-7E0A-EBA559EABC67}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05741F82-4182-4463-A97B-F29DA1247B70}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -367,8 +440,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8124265" y="11306735"/>
-          <a:ext cx="4045324" cy="1877524"/>
+          <a:off x="9446559" y="14357537"/>
+          <a:ext cx="3410426" cy="2191056"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -379,23 +452,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>493059</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>403412</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>329046</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>623454</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>3903485</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>2594468</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>4191600</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>2293130</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="4" name="그림 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2BF60F8-99F9-5757-197A-7091E898A1C6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6AF92C9-627B-4015-891B-42C9F1357B0B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -411,7 +484,85 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8482853" y="14377147"/>
+          <a:off x="9282546" y="1318779"/>
+          <a:ext cx="3820991" cy="1669676"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>134471</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>649941</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4045324" cy="1877524"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="그림 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1D55F43-B788-4555-833D-E2F6E8F7F08C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9087971" y="11289366"/>
+          <a:ext cx="4045324" cy="1877524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>493059</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>403412</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3410426" cy="2191056"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="그림 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{218C93BC-5E4A-4AA3-A945-587F981F97BB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9446559" y="14357537"/>
           <a:ext cx="3410426" cy="2191056"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -420,7 +571,46 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>329046</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>623454</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3820991" cy="1669676"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="그림 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77DA4DC5-CF52-4527-AF44-0F996A0ED367}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9282546" y="1318779"/>
+          <a:ext cx="3820991" cy="1669676"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -721,10 +911,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{840A6E5F-3F9B-4A4A-B8E1-A32E93BD1DA9}">
-  <dimension ref="B3:H11"/>
+  <dimension ref="B3:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -733,16 +923,16 @@
     <col min="3" max="3" width="12.375" customWidth="1"/>
     <col min="4" max="4" width="11.75" customWidth="1"/>
     <col min="5" max="6" width="13.25" customWidth="1"/>
-    <col min="7" max="7" width="39" customWidth="1"/>
-    <col min="8" max="8" width="56.75" customWidth="1"/>
+    <col min="7" max="7" width="51.625" customWidth="1"/>
+    <col min="8" max="9" width="8.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>13</v>
@@ -751,16 +941,13 @@
         <v>1</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" ht="261" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="2:7" ht="261" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="1">
         <v>1</v>
       </c>
@@ -774,14 +961,13 @@
         <v>23</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="2:8" ht="261" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="2:7" ht="261" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="1">
         <v>2</v>
       </c>
@@ -792,11 +978,14 @@
         <v>25</v>
       </c>
       <c r="E5" s="3"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="2:8" ht="261" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="261" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="1">
         <v>3</v>
       </c>
@@ -806,11 +995,14 @@
       <c r="D6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="2:8" ht="261" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="261" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="1">
         <v>4</v>
       </c>
@@ -824,14 +1016,13 @@
         <v>20</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="2:8" ht="261" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="2:7" ht="261" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="1">
         <v>5</v>
       </c>
@@ -845,14 +1036,13 @@
         <v>28</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="2:8" ht="261" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="2:7" ht="261" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="1">
         <v>6</v>
       </c>
@@ -866,14 +1056,13 @@
         <v>21</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="2:8" ht="261" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="2:7" ht="261" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="1">
         <v>7</v>
       </c>
@@ -887,14 +1076,13 @@
         <v>22</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="2:8" ht="261" customHeight="1" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" ht="263.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="1">
         <v>8</v>
       </c>
@@ -905,10 +1093,222 @@
         <v>26</v>
       </c>
       <c r="E11" s="3"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-    </row>
+      <c r="F11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" ht="263.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="1">
+        <v>9</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" ht="263.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="1">
+        <v>10</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" ht="263.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="1">
+        <v>11</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" ht="263.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="1">
+        <v>12</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="F3:F15" xr:uid="{840A6E5F-3F9B-4A4A-B8E1-A32E93BD1DA9}"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F05607E0-108F-42B0-BFA5-F77F41A16EC7}">
+  <dimension ref="B2:D26"/>
+  <sheetViews>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="12.375" customWidth="1"/>
+    <col min="3" max="3" width="7.75" customWidth="1"/>
+    <col min="4" max="4" width="64.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" ht="219.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="2:4" ht="219.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="1">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="2:4" ht="219.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="1">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="2:4" ht="219.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="1">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="2:4" ht="219.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="1">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="2:4" ht="219.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="1">
+        <v>6</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="2:4" ht="219.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="1">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="2:4" ht="219.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="1">
+        <v>8</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="2:4" ht="219.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="1">
+        <v>9</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="2:4" ht="219.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="1">
+        <v>10</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="2:4" ht="219.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="1">
+        <v>11</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="2:4" ht="219.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="1">
+        <v>12</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="2:4" ht="219.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="2:4" ht="219.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="17" ht="219.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="18" ht="219.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="19" ht="219.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="20" ht="219.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="21" ht="219.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="22" ht="219.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="23" ht="219.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="24" ht="219.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="25" ht="219.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="26" ht="219.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/_Prototype/Document/Excel 문서/캐릭터.xlsx
+++ b/_Prototype/Document/Excel 문서/캐릭터.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\2022\git\EscapeIsland\_Prototype\Document\Excel 문서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A70EB754-A6D6-4AD7-B771-1B3240BF0F91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DAD52D4-4132-4360-B558-D35623ED344A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{7C7DA98A-81B2-4BE7-8537-AA474E77B845}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="53">
   <si>
     <t>캐릭터 이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -134,11 +134,6 @@
   </si>
   <si>
     <t>지각 5초전</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지각 5초전의 속도 (이동속도 + 30%)로
-이동합니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -157,14 +152,6 @@
   </si>
   <si>
     <t>머리 깨기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스킬을 당하면 n초간 머리가 아파 기절합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>팀원들이 당한 모든 디버프를 해제합니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -211,12 +198,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>기타를 쳐서 범위 안의 
-아군 이속 15% 증가
-적군 이속 15% 감소 시킵니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>둔화 화살을 쏴서 맞추면 맞은 
 적의 이동속도가 70% 감소합니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -256,6 +237,40 @@
   </si>
   <si>
     <t xml:space="preserve">캐릭터 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사이먼
+조미니</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레옹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기온</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기타를 쳐서 범위 안의 
+(아군 이속 15% 증가
+적군 이속 15% 감소 시킵니다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬을 당하면 10초간 머리가 아파 기절합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지각 5초전의 속도 (이동속도 + 30%)로 이동합니다.
+5초간 빨라짐.
+쿨타임 20초</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팀원들이 당한 모든 디버프를 해제합니다.
+쿨타임 15초</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -453,15 +468,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>329046</xdr:colOff>
+      <xdr:colOff>536864</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>623454</xdr:rowOff>
+      <xdr:rowOff>571500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>4191600</xdr:colOff>
+      <xdr:colOff>4399418</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>2293130</xdr:rowOff>
+      <xdr:rowOff>2241176</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -484,8 +499,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9282546" y="1318779"/>
-          <a:ext cx="3820991" cy="1669676"/>
+          <a:off x="2753591" y="1073727"/>
+          <a:ext cx="3862554" cy="1669676"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -497,9 +512,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>134471</xdr:colOff>
+      <xdr:colOff>394244</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>649941</xdr:rowOff>
+      <xdr:rowOff>476760</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4045324" cy="1877524"/>
     <xdr:pic>
@@ -523,7 +538,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9087971" y="11289366"/>
+          <a:off x="2610971" y="9343669"/>
           <a:ext cx="4045324" cy="1877524"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -536,9 +551,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>493059</xdr:colOff>
+      <xdr:colOff>856741</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>403412</xdr:rowOff>
+      <xdr:rowOff>230230</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3410426" cy="2191056"/>
     <xdr:pic>
@@ -562,7 +577,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9446559" y="14357537"/>
+          <a:off x="3073468" y="11885366"/>
           <a:ext cx="3410426" cy="2191056"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -572,20 +587,25 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>329046</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>623454</xdr:rowOff>
+      <xdr:colOff>675409</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>155863</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="3820991" cy="1669676"/>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>4069773</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>2678796</xdr:rowOff>
+    </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="7" name="그림 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77DA4DC5-CF52-4527-AF44-0F996A0ED367}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF033BF3-6A19-1034-2ADF-0249A64EE1D8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -594,15 +614,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9282546" y="1318779"/>
-          <a:ext cx="3820991" cy="1669676"/>
+          <a:off x="2892136" y="3446318"/>
+          <a:ext cx="3394364" cy="2522933"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -610,7 +630,7 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -913,8 +933,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{840A6E5F-3F9B-4A4A-B8E1-A32E93BD1DA9}">
   <dimension ref="B3:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -923,7 +943,7 @@
     <col min="3" max="3" width="12.375" customWidth="1"/>
     <col min="4" max="4" width="11.75" customWidth="1"/>
     <col min="5" max="6" width="13.25" customWidth="1"/>
-    <col min="7" max="7" width="51.625" customWidth="1"/>
+    <col min="7" max="7" width="66.625" customWidth="1"/>
     <col min="8" max="9" width="8.75" customWidth="1"/>
   </cols>
   <sheetData>
@@ -932,7 +952,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>13</v>
@@ -941,13 +961,13 @@
         <v>1</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:7" ht="261" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:7" ht="90.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="1">
         <v>1</v>
       </c>
@@ -961,13 +981,13 @@
         <v>23</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" ht="261" customHeight="1" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="90.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="1">
         <v>2</v>
       </c>
@@ -975,17 +995,17 @@
         <v>6</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" ht="261" customHeight="1" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="90.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="1">
         <v>3</v>
       </c>
@@ -996,13 +1016,13 @@
         <v>15</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" ht="261" customHeight="1" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="90.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="1">
         <v>4</v>
       </c>
@@ -1016,13 +1036,13 @@
         <v>20</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" ht="261" customHeight="1" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="90.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="1">
         <v>5</v>
       </c>
@@ -1033,16 +1053,16 @@
         <v>17</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" ht="261" customHeight="1" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="90.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="1">
         <v>6</v>
       </c>
@@ -1056,13 +1076,13 @@
         <v>21</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" ht="261" customHeight="1" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" ht="90.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="1">
         <v>7</v>
       </c>
@@ -1076,13 +1096,13 @@
         <v>22</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" ht="263.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" ht="90.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="1">
         <v>8</v>
       </c>
@@ -1090,78 +1110,84 @@
         <v>12</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" ht="263.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" ht="90.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="1">
         <v>9</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" ht="263.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" ht="126.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="1">
         <v>10</v>
       </c>
-      <c r="C13" s="1"/>
+      <c r="C13" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="D13" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" ht="263.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" ht="90.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="1">
         <v>11</v>
       </c>
-      <c r="C14" s="1"/>
+      <c r="C14" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="D14" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" ht="263.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" ht="90.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="1">
         <v>12</v>
       </c>
-      <c r="C15" s="1"/>
+      <c r="C15" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="D15" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1175,8 +1201,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F05607E0-108F-42B0-BFA5-F77F41A16EC7}">
   <dimension ref="B2:D26"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView topLeftCell="A5" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/_Prototype/Document/Excel 문서/캐릭터.xlsx
+++ b/_Prototype/Document/Excel 문서/캐릭터.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\2022\git\EscapeIsland\_Prototype\Document\Excel 문서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DAD52D4-4132-4360-B558-D35623ED344A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23335899-82D6-4577-B483-8650E761E442}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{7C7DA98A-81B2-4BE7-8537-AA474E77B845}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="1" xr2:uid="{7C7DA98A-81B2-4BE7-8537-AA474E77B845}"/>
   </bookViews>
   <sheets>
     <sheet name="캐릭터 설명 &amp; 스킬 설명" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="61">
   <si>
     <t>캐릭터 이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -271,6 +271,38 @@
   <si>
     <t>팀원들이 당한 모든 디버프를 해제합니다.
 쿨타임 15초</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>명중!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>디스랩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테러</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도둑질</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공간이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연구소 관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>앤더</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모두 함께 댄스</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -345,7 +377,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -356,6 +388,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -933,8 +968,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{840A6E5F-3F9B-4A4A-B8E1-A32E93BD1DA9}">
   <dimension ref="B3:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -997,7 +1032,9 @@
       <c r="D5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="3"/>
+      <c r="E5" s="3" t="s">
+        <v>60</v>
+      </c>
       <c r="F5" s="1" t="s">
         <v>43</v>
       </c>
@@ -1015,6 +1052,9 @@
       <c r="D6" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="E6" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="F6" s="1" t="s">
         <v>44</v>
       </c>
@@ -1112,7 +1152,9 @@
       <c r="D11" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="3"/>
+      <c r="E11" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="F11" s="1" t="s">
         <v>44</v>
       </c>
@@ -1124,11 +1166,15 @@
       <c r="B12" s="1">
         <v>9</v>
       </c>
-      <c r="C12" s="1"/>
+      <c r="C12" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="D12" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="3"/>
+      <c r="E12" s="3" t="s">
+        <v>55</v>
+      </c>
       <c r="F12" s="1" t="s">
         <v>44</v>
       </c>
@@ -1146,7 +1192,9 @@
       <c r="D13" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E13" s="3"/>
+      <c r="E13" s="3" t="s">
+        <v>56</v>
+      </c>
       <c r="F13" s="1" t="s">
         <v>43</v>
       </c>
@@ -1164,7 +1212,9 @@
       <c r="D14" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E14" s="3"/>
+      <c r="E14" s="3" t="s">
+        <v>57</v>
+      </c>
       <c r="F14" s="1" t="s">
         <v>43</v>
       </c>
@@ -1182,7 +1232,9 @@
       <c r="D15" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E15" s="3"/>
+      <c r="E15" s="3" t="s">
+        <v>58</v>
+      </c>
       <c r="F15" s="1" t="s">
         <v>43</v>
       </c>
@@ -1201,8 +1253,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F05607E0-108F-42B0-BFA5-F77F41A16EC7}">
   <dimension ref="B2:D26"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/_Prototype/Document/Excel 문서/캐릭터.xlsx
+++ b/_Prototype/Document/Excel 문서/캐릭터.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\2022\git\EscapeIsland\_Prototype\Document\Excel 문서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23335899-82D6-4577-B483-8650E761E442}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0C29A5D-1D1A-4C67-8826-0C7CD922C493}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="1" xr2:uid="{7C7DA98A-81B2-4BE7-8537-AA474E77B845}"/>
   </bookViews>
@@ -240,11 +240,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>사이먼
-조미니</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>레옹</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -303,6 +298,10 @@
   </si>
   <si>
     <t>모두 함께 댄스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사이먼</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -415,15 +414,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>134471</xdr:colOff>
+      <xdr:colOff>302990</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>649941</xdr:rowOff>
+      <xdr:rowOff>562018</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>4221358</xdr:colOff>
+      <xdr:colOff>4389877</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>2527465</xdr:rowOff>
+      <xdr:rowOff>2439542</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -446,8 +445,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9087971" y="11289366"/>
-          <a:ext cx="4045324" cy="1877524"/>
+          <a:off x="2530375" y="9442249"/>
+          <a:ext cx="4086887" cy="1877524"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -459,15 +458,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>493059</xdr:colOff>
+      <xdr:colOff>632270</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>403412</xdr:rowOff>
+      <xdr:rowOff>337470</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>3938121</xdr:colOff>
+      <xdr:colOff>4077332</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>2594468</xdr:rowOff>
+      <xdr:rowOff>2528526</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -490,8 +489,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9446559" y="14357537"/>
-          <a:ext cx="3410426" cy="2191056"/>
+          <a:off x="2859655" y="12009258"/>
+          <a:ext cx="3445062" cy="2191056"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -544,84 +543,6 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>394244</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>476760</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="4045324" cy="1877524"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="그림 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1D55F43-B788-4555-833D-E2F6E8F7F08C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2610971" y="9343669"/>
-          <a:ext cx="4045324" cy="1877524"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>856741</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>230230</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="3410426" cy="2191056"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="그림 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{218C93BC-5E4A-4AA3-A945-587F981F97BB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3073468" y="11885366"/>
-          <a:ext cx="3410426" cy="2191056"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
@@ -658,6 +579,653 @@
         <a:xfrm>
           <a:off x="2892136" y="3446318"/>
           <a:ext cx="3394364" cy="2522933"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>388327</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>124558</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>4360186</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>2490034</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="그림 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F55669A-FC85-FB9A-7600-7DD84B5D711E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2615712" y="6213231"/>
+          <a:ext cx="3971859" cy="2365476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1230923</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>2432538</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2255169" cy="336246"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="TextBox 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31B498E4-C835-CB0C-4D51-53DC5CCED646}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3458308" y="8521211"/>
+          <a:ext cx="2255169" cy="336246"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>화살이 사거리만큼 날아가면 삭제</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>137099</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>854636</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2095499</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>1952732</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="10" name="그룹 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DACE2516-B3F7-1A86-B557-37D128E21E27}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2355864" y="15310224"/>
+          <a:ext cx="1958400" cy="1098096"/>
+          <a:chOff x="0" y="12644"/>
+          <a:chExt cx="12192000" cy="6832712"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="11" name="그림 10">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BCF3928A-C1CE-3831-0BA0-FA3EB1009D15}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="0" y="12644"/>
+            <a:ext cx="12192000" cy="6832712"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="12" name="타원 11">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{428D3192-C3A4-E255-3531-E9718EB78A45}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4958017" y="2345531"/>
+            <a:ext cx="2275966" cy="2166938"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="ko-KR"/>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:endParaRPr lang="ko-KR" altLang="en-US"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="13" name="그림 12" descr="텍스트, 우산, 액세서리, 벡터그래픽이(가) 표시된 사진&#10;&#10;자동 생성된 설명">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECD87653-792D-749E-F39C-9133BC05700C}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4586542" y="2857500"/>
+            <a:ext cx="1143000" cy="1143000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="14" name="Picture 2" descr="기절 이미지 - 게티이미지뱅크">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8178914F-56D5-A023-D8FB-5C3251246849}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print">
+            <a:extLst>
+              <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+                <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                  <a14:imgLayer r:embed="rId9">
+                    <a14:imgEffect>
+                      <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
+                    </a14:imgEffect>
+                  </a14:imgLayer>
+                </a14:imgProps>
+              </a:ext>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="4867275" y="2495550"/>
+            <a:ext cx="433388" cy="433388"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2576965</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>869290</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>4570003</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>1979256</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="그림 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BCF3928A-C1CE-3831-0BA0-FA3EB1009D15}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4804350" y="15332636"/>
+          <a:ext cx="1993038" cy="1109966"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3324198</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>1339452</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3511509</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>1525355</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="그림 21" descr="텍스트, 우산, 액세서리, 벡터그래픽이(가) 표시된 사진&#10;&#10;자동 생성된 설명">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECD87653-792D-749E-F39C-9133BC05700C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5551583" y="15802798"/>
+          <a:ext cx="187311" cy="185903"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2212730</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>1348153</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2483826</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>1482434</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="화살표: 오른쪽 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{448BD264-B210-A3CD-66E1-BADF69AB1C9C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4440115" y="15811499"/>
+          <a:ext cx="271096" cy="134281"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>89647</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>100853</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>4829735</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>2746570</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="그림 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA7363E5-4314-2D8F-5E0F-0CA8986CBE50}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2308412" y="17346706"/>
+          <a:ext cx="4740088" cy="2645717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>4818529</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>2697924</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="그림 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98541186-9702-6ED1-ACCE-DC995DE4D732}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2218765" y="20036118"/>
+          <a:ext cx="4818529" cy="2697924"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -968,8 +1536,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{840A6E5F-3F9B-4A4A-B8E1-A32E93BD1DA9}">
   <dimension ref="B3:G15"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView topLeftCell="A9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1019,7 +1587,7 @@
         <v>31</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="90.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1033,13 +1601,13 @@
         <v>24</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>43</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="90.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1053,7 +1621,7 @@
         <v>15</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>44</v>
@@ -1099,7 +1667,7 @@
         <v>30</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="90.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1119,7 +1687,7 @@
         <v>29</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="2:7" ht="90.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1153,7 +1721,7 @@
         <v>25</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>44</v>
@@ -1167,13 +1735,13 @@
         <v>9</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>32</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>44</v>
@@ -1187,13 +1755,13 @@
         <v>10</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>33</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>43</v>
@@ -1207,13 +1775,13 @@
         <v>11</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>40</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>43</v>
@@ -1227,13 +1795,13 @@
         <v>12</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>43</v>
@@ -1253,8 +1821,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F05607E0-108F-42B0-BFA5-F77F41A16EC7}">
   <dimension ref="B2:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/_Prototype/Document/Excel 문서/캐릭터.xlsx
+++ b/_Prototype/Document/Excel 문서/캐릭터.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\2022\git\EscapeIsland\_Prototype\Document\Excel 문서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0C29A5D-1D1A-4C67-8826-0C7CD922C493}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{555463BC-734B-4350-BC17-4C01853E09EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="1" xr2:uid="{7C7DA98A-81B2-4BE7-8537-AA474E77B845}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{7C7DA98A-81B2-4BE7-8537-AA474E77B845}"/>
   </bookViews>
   <sheets>
     <sheet name="캐릭터 설명 &amp; 스킬 설명" sheetId="1" r:id="rId1"/>
@@ -198,11 +198,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>둔화 화살을 쏴서 맞추면 맞은 
-적의 이동속도가 70% 감소합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>디스렙을 하며
 적팀의 미션 수행을 한번 끊을 수 있습니다.
 쿨타임 : 50초</t>
@@ -248,12 +243,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>기타를 쳐서 범위 안의 
-(아군 이속 15% 증가
-적군 이속 15% 감소 시킵니다.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>스킬을 당하면 10초간 머리가 아파 기절합니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -302,6 +291,16 @@
   </si>
   <si>
     <t>사이먼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기타를 쳐서 범위 안에 들어와있던 캐릭터들에게 다음의 효과를 줍니다.
+같은 팀 : 60초간의 진행하는 미션의 쿨타임을 50% 줄여줍니다.
+상대 팀 : 60초간 이동속도가 10% 줄어들고 쿨타임이 30% 증가합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>둔화 화살을 쏴서 맞추면 맞은 적의 이동속도가 1분간 70% 감소합니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -429,7 +428,7 @@
         <xdr:cNvPr id="2" name="그림 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4927A93C-043E-456C-9546-60FA12210C04}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -473,7 +472,7 @@
         <xdr:cNvPr id="3" name="그림 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05741F82-4182-4463-A97B-F29DA1247B70}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -517,7 +516,7 @@
         <xdr:cNvPr id="4" name="그림 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6AF92C9-627B-4015-891B-42C9F1357B0B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -561,7 +560,7 @@
         <xdr:cNvPr id="7" name="그림 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF033BF3-6A19-1034-2ADF-0249A64EE1D8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -605,7 +604,7 @@
         <xdr:cNvPr id="8" name="그림 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F55669A-FC85-FB9A-7600-7DD84B5D711E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -644,7 +643,7 @@
         <xdr:cNvPr id="9" name="TextBox 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31B498E4-C835-CB0C-4D51-53DC5CCED646}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -707,7 +706,7 @@
         <xdr:cNvPr id="10" name="그룹 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DACE2516-B3F7-1A86-B557-37D128E21E27}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -715,7 +714,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2355864" y="15310224"/>
+          <a:off x="2357409" y="15319498"/>
           <a:ext cx="1958400" cy="1098096"/>
           <a:chOff x="0" y="12644"/>
           <a:chExt cx="12192000" cy="6832712"/>
@@ -726,7 +725,7 @@
           <xdr:cNvPr id="11" name="그림 10">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BCF3928A-C1CE-3831-0BA0-FA3EB1009D15}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000B000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -755,7 +754,7 @@
           <xdr:cNvPr id="12" name="타원 11">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{428D3192-C3A4-E255-3531-E9718EB78A45}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000C000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -904,7 +903,7 @@
           <xdr:cNvPr id="13" name="그림 12" descr="텍스트, 우산, 액세서리, 벡터그래픽이(가) 표시된 사진&#10;&#10;자동 생성된 설명">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECD87653-792D-749E-F39C-9133BC05700C}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000D000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -939,7 +938,7 @@
           <xdr:cNvPr id="14" name="Picture 2" descr="기절 이미지 - 게티이미지뱅크">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8178914F-56D5-A023-D8FB-5C3251246849}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000E000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1010,7 +1009,7 @@
         <xdr:cNvPr id="21" name="그림 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BCF3928A-C1CE-3831-0BA0-FA3EB1009D15}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000015000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1054,7 +1053,7 @@
         <xdr:cNvPr id="22" name="그림 21" descr="텍스트, 우산, 액세서리, 벡터그래픽이(가) 표시된 사진&#10;&#10;자동 생성된 설명">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECD87653-792D-749E-F39C-9133BC05700C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1104,7 +1103,7 @@
         <xdr:cNvPr id="25" name="화살표: 오른쪽 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{448BD264-B210-A3CD-66E1-BADF69AB1C9C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000019000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1164,7 +1163,7 @@
         <xdr:cNvPr id="32" name="그림 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA7363E5-4314-2D8F-5E0F-0CA8986CBE50}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000020000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1208,7 +1207,7 @@
         <xdr:cNvPr id="33" name="그림 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98541186-9702-6ED1-ACCE-DC995DE4D732}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000021000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1536,8 +1535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{840A6E5F-3F9B-4A4A-B8E1-A32E93BD1DA9}">
   <dimension ref="B3:G15"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1555,7 +1554,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>13</v>
@@ -1587,7 +1586,7 @@
         <v>31</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="90.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1601,13 +1600,13 @@
         <v>24</v>
       </c>
       <c r="E5" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="90.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1621,13 +1620,13 @@
         <v>15</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="90.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1667,7 +1666,7 @@
         <v>30</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="90.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1687,7 +1686,7 @@
         <v>29</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="2:7" ht="90.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1721,13 +1720,13 @@
         <v>25</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="2:7" ht="90.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1735,16 +1734,16 @@
         <v>9</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>32</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>34</v>
@@ -1755,16 +1754,16 @@
         <v>10</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>33</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>36</v>
@@ -1775,19 +1774,19 @@
         <v>11</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="2:7" ht="90.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1795,19 +1794,19 @@
         <v>12</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G15" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1821,8 +1820,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F05607E0-108F-42B0-BFA5-F77F41A16EC7}">
   <dimension ref="B2:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/_Prototype/Document/Excel 문서/캐릭터.xlsx
+++ b/_Prototype/Document/Excel 문서/캐릭터.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\2022\git\EscapeIsland\_Prototype\Document\Excel 문서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{555463BC-734B-4350-BC17-4C01853E09EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D79B0CE-CAFC-4288-928C-7BF0AD8A2962}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{7C7DA98A-81B2-4BE7-8537-AA474E77B845}"/>
   </bookViews>
@@ -129,10 +129,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>심문</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>지각 5초전</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -182,11 +178,6 @@
     <t>덫을 사용하여 상대팀의 이동을 방해합니다.
 덫을 10회 사용하면 상대편 배에 불을 지를 수 있습니다. 
 (불을 지르면 배에 있는 재료들이 20초당 하나씩 사라집니다.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상대팀 한명을 잡고 상대방 팀의 아이템(랜덤으로 결정)이 
-얼마나 모였는지 심문합니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -303,12 +294,46 @@
     <t>둔화 화살을 쏴서 맞추면 맞은 적의 이동속도가 1분간 70% 감소합니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>체포</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">범위 내에 있는 적들을 모두 체포합니다.
+스킬에 걸린 적들은 모두 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>속박</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>상태에 걸립니다.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -321,6 +346,15 @@
       <sz val="8"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -1535,8 +1569,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{840A6E5F-3F9B-4A4A-B8E1-A32E93BD1DA9}">
   <dimension ref="B3:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1554,7 +1588,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>13</v>
@@ -1563,7 +1597,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>2</v>
@@ -1580,13 +1614,13 @@
         <v>14</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="90.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1597,16 +1631,16 @@
         <v>6</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="90.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1620,13 +1654,13 @@
         <v>15</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="90.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1643,10 +1677,10 @@
         <v>20</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="90.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1660,13 +1694,13 @@
         <v>17</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="90.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1683,10 +1717,10 @@
         <v>21</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="2:7" ht="90.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1700,13 +1734,13 @@
         <v>19</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>29</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="2:7" ht="90.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1717,16 +1751,16 @@
         <v>12</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="2:7" ht="90.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1734,19 +1768,19 @@
         <v>9</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="2:7" ht="126.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1754,19 +1788,19 @@
         <v>10</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="2:7" ht="90.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1774,19 +1808,19 @@
         <v>11</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="2:7" ht="90.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1794,19 +1828,19 @@
         <v>12</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D15" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="G15" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/_Prototype/Document/Excel 문서/캐릭터.xlsx
+++ b/_Prototype/Document/Excel 문서/캐릭터.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\2022\git\EscapeIsland\_Prototype\Document\Excel 문서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D79B0CE-CAFC-4288-928C-7BF0AD8A2962}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35D25954-A049-4AC1-9805-9BC5C3337990}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{7C7DA98A-81B2-4BE7-8537-AA474E77B845}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7C7DA98A-81B2-4BE7-8537-AA474E77B845}"/>
   </bookViews>
   <sheets>
     <sheet name="캐릭터 설명 &amp; 스킬 설명" sheetId="1" r:id="rId1"/>
@@ -409,7 +409,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -424,6 +424,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -748,7 +751,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2357409" y="15319498"/>
+          <a:off x="2375474" y="15285011"/>
           <a:ext cx="1958400" cy="1098096"/>
           <a:chOff x="0" y="12644"/>
           <a:chExt cx="12192000" cy="6832712"/>
@@ -1567,10 +1570,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{840A6E5F-3F9B-4A4A-B8E1-A32E93BD1DA9}">
-  <dimension ref="B3:G15"/>
+  <dimension ref="B3:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1579,7 +1582,7 @@
     <col min="3" max="3" width="12.375" customWidth="1"/>
     <col min="4" max="4" width="11.75" customWidth="1"/>
     <col min="5" max="6" width="13.25" customWidth="1"/>
-    <col min="7" max="7" width="66.625" customWidth="1"/>
+    <col min="7" max="7" width="65.5" customWidth="1"/>
     <col min="8" max="9" width="8.75" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1823,7 +1826,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="2:7" ht="90.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:7" ht="92.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="1">
         <v>12</v>
       </c>
@@ -1842,6 +1845,66 @@
       <c r="G15" s="1" t="s">
         <v>39</v>
       </c>
+    </row>
+    <row r="16" spans="2:7" ht="92.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="1">
+        <v>13</v>
+      </c>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+    </row>
+    <row r="17" spans="2:7" ht="92.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="1">
+        <v>14</v>
+      </c>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+    </row>
+    <row r="18" spans="2:7" ht="92.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="1">
+        <v>15</v>
+      </c>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+    </row>
+    <row r="19" spans="2:7" ht="92.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="1">
+        <v>16</v>
+      </c>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+    </row>
+    <row r="20" spans="2:7" ht="92.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="1">
+        <v>17</v>
+      </c>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+    </row>
+    <row r="21" spans="2:7" ht="92.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="1">
+        <v>18</v>
+      </c>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
     </row>
   </sheetData>
   <autoFilter ref="F3:F15" xr:uid="{840A6E5F-3F9B-4A4A-B8E1-A32E93BD1DA9}"/>
@@ -1854,7 +1917,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F05607E0-108F-42B0-BFA5-F77F41A16EC7}">
   <dimension ref="B2:D26"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
       <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>

--- a/_Prototype/Document/Excel 문서/캐릭터.xlsx
+++ b/_Prototype/Document/Excel 문서/캐릭터.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\2022\git\EscapeIsland\_Prototype\Document\Excel 문서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35D25954-A049-4AC1-9805-9BC5C3337990}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1156B90A-A2D5-408B-804E-254C78BE6816}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7C7DA98A-81B2-4BE7-8537-AA474E77B845}"/>
+    <workbookView xWindow="30915" yWindow="1560" windowWidth="21600" windowHeight="11295" xr2:uid="{7C7DA98A-81B2-4BE7-8537-AA474E77B845}"/>
   </bookViews>
   <sheets>
     <sheet name="캐릭터 설명 &amp; 스킬 설명" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="64">
   <si>
     <t>캐릭터 이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -175,32 +175,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>덫을 사용하여 상대팀의 이동을 방해합니다.
-덫을 10회 사용하면 상대편 배에 불을 지를 수 있습니다. 
-(불을 지르면 배에 있는 재료들이 20초당 하나씩 사라집니다.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상대편의 배에 들어가 상대가 모은 재료들중 
-한 종류의 아이템을 뺴온다.
-쿨타임 : 30초
-[쿨타임이 도는 타이밍은 상대편의 배를 나왔을 때로 
-가능할까요?]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>디스렙을 하며
-적팀의 미션 수행을 한번 끊을 수 있습니다.
-쿨타임 : 50초</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공간이동
-원의 반지름 만큼 공간 이동이 가능합니다.
-이 스킬을 사용하면 벽도 넘을 수 있습니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>마술사</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -210,10 +184,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>연구소의 문을 열고 닫을 수 있습니다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>유틸형</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -231,10 +201,6 @@
   </si>
   <si>
     <t>기온</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스킬을 당하면 10초간 머리가 아파 기절합니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -285,17 +251,38 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>체포</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개발 완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O
+(테스트 X)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>기타를 쳐서 범위 안에 들어와있던 캐릭터들에게 다음의 효과를 줍니다.
 같은 팀 : 60초간의 진행하는 미션의 쿨타임을 50% 줄여줍니다.
-상대 팀 : 60초간 이동속도가 10% 줄어들고 쿨타임이 30% 증가합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>둔화 화살을 쏴서 맞추면 맞은 적의 이동속도가 1분간 70% 감소합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>체포</t>
+상대 팀 : 60초간 이동속도가 10% 줄어들고 쿨타임이 30% 증가합니다.
+쿨타임 : (효과가 모두 발동된 후) 60초</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>둔화 화살을 쏴서 맞추면 맞은 적의 이동속도가 1분간 70% 감소합니다.
+쿨타임 : (화살을 맞췄을 때) 50초
+(맞추지 못했을 때) : 30초</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬을 당하면 5초간 머리가 아파 기절합니다.
+쿨타임 : 30초</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -324,8 +311,67 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>상태에 걸립니다.</t>
+      <t xml:space="preserve">상태에 걸립니다.
+속박상태에서는 움직일 수는 없지만 스킬은 사용가능합니다.
+</t>
     </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>쿨타임</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : 45초</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>디스랩을 하며
+적팀의 미션 수행을 한번 끊을 수 있습니다.
+쿨타임 : 50초</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">상대편의 배에 들어가 상대가 모은 재료들중 
+한 종류의 아이템을 뺴온다.
+쿨타임 : (상대편의 배를 나왔을 때부터) 30초
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공간이동
+원의 반지름 만큼 공간 이동이 가능합니다.
+이 스킬을 사용하면 벽도 넘을 수 있습니다.
+쿨타임 : 20초</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연구소의 문을 닫을 수 있습니다.
+문은 5초 뒤 다시 열립니다.
+쿨타임 : (문이 열린 뒤) 20초</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>덫을 사용하여 상대팀의 이동을 방해합니다.
+덫 사용 쿨타임 : 20초
+덫을 10회 사용하면 상대편 배에 불을 지를 수 있습니다. 
+(불을 지르면 배에 있는 재료들이 20초당 하나씩 사라집니다.)
+방화 쿨타임 : (불을 지른 순간부터) 100초</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1570,10 +1616,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{840A6E5F-3F9B-4A4A-B8E1-A32E93BD1DA9}">
-  <dimension ref="B3:G21"/>
+  <dimension ref="B3:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R8" sqref="R8"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1583,15 +1629,16 @@
     <col min="4" max="4" width="11.75" customWidth="1"/>
     <col min="5" max="6" width="13.25" customWidth="1"/>
     <col min="7" max="7" width="65.5" customWidth="1"/>
-    <col min="8" max="9" width="8.75" customWidth="1"/>
+    <col min="8" max="8" width="12.125" customWidth="1"/>
+    <col min="9" max="9" width="8.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>13</v>
@@ -1605,8 +1652,11 @@
       <c r="G3" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="2:7" ht="90.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H3" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" ht="90.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="1">
         <v>1</v>
       </c>
@@ -1623,10 +1673,13 @@
         <v>30</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" ht="90.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="90.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="1">
         <v>2</v>
       </c>
@@ -1637,16 +1690,17 @@
         <v>23</v>
       </c>
       <c r="E5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" ht="90.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="2:8" ht="90.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="1">
         <v>3</v>
       </c>
@@ -1657,16 +1711,17 @@
         <v>15</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" ht="90.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="2:8" ht="90.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="1">
         <v>4</v>
       </c>
@@ -1685,8 +1740,11 @@
       <c r="G7" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="8" spans="2:7" ht="90.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H7" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" ht="90.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="1">
         <v>5</v>
       </c>
@@ -1702,11 +1760,12 @@
       <c r="F8" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" ht="90.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G8" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="2:8" ht="90.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="1">
         <v>6</v>
       </c>
@@ -1723,10 +1782,13 @@
         <v>28</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" ht="90.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" ht="90.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="1">
         <v>7</v>
       </c>
@@ -1737,16 +1799,17 @@
         <v>19</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>29</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" ht="90.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="2:8" ht="90.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="1">
         <v>8</v>
       </c>
@@ -1757,96 +1820,105 @@
         <v>24</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" ht="90.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" ht="113.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="1">
         <v>9</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" ht="126.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" ht="126.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="1">
         <v>10</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>32</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" ht="90.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="2:8" ht="113.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="1">
         <v>11</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" ht="92.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="2:8" ht="92.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="1">
         <v>12</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" ht="92.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="2:8" ht="92.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="1">
         <v>13</v>
       </c>
@@ -1855,8 +1927,9 @@
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
-    </row>
-    <row r="17" spans="2:7" ht="92.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="2:8" ht="92.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="1">
         <v>14</v>
       </c>
@@ -1865,8 +1938,9 @@
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
-    </row>
-    <row r="18" spans="2:7" ht="92.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="2:8" ht="92.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="1">
         <v>15</v>
       </c>
@@ -1875,8 +1949,9 @@
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
-    </row>
-    <row r="19" spans="2:7" ht="92.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="2:8" ht="92.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="1">
         <v>16</v>
       </c>
@@ -1885,8 +1960,9 @@
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
-    </row>
-    <row r="20" spans="2:7" ht="92.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="2:8" ht="92.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="1">
         <v>17</v>
       </c>
@@ -1895,8 +1971,9 @@
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
-    </row>
-    <row r="21" spans="2:7" ht="92.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="2:8" ht="92.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="1">
         <v>18</v>
       </c>
@@ -1905,6 +1982,7 @@
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
+      <c r="H21" s="1"/>
     </row>
   </sheetData>
   <autoFilter ref="F3:F15" xr:uid="{840A6E5F-3F9B-4A4A-B8E1-A32E93BD1DA9}"/>

--- a/_Prototype/Document/Excel 문서/캐릭터.xlsx
+++ b/_Prototype/Document/Excel 문서/캐릭터.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\2022\git\EscapeIsland\_Prototype\Document\Excel 문서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1156B90A-A2D5-408B-804E-254C78BE6816}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E23DF0B-8EB2-46D4-991F-7BAA537626BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30915" yWindow="1560" windowWidth="21600" windowHeight="11295" xr2:uid="{7C7DA98A-81B2-4BE7-8537-AA474E77B845}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{7C7DA98A-81B2-4BE7-8537-AA474E77B845}"/>
   </bookViews>
   <sheets>
     <sheet name="캐릭터 설명 &amp; 스킬 설명" sheetId="1" r:id="rId1"/>
@@ -286,6 +286,40 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>디스랩을 하며
+적팀의 미션 수행을 한번 끊을 수 있습니다.
+쿨타임 : 50초</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">상대편의 배에 들어가 상대가 모은 재료들중 
+한 종류의 아이템을 뺴온다.
+쿨타임 : (상대편의 배를 나왔을 때부터) 30초
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공간이동
+원의 반지름 만큼 공간 이동이 가능합니다.
+이 스킬을 사용하면 벽도 넘을 수 있습니다.
+쿨타임 : 20초</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연구소의 문을 닫을 수 있습니다.
+문은 5초 뒤 다시 열립니다.
+쿨타임 : (문이 열린 뒤) 20초</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>덫을 사용하여 상대팀의 이동을 방해합니다.
+덫 사용 쿨타임 : 20초
+덫을 10회 사용하면 상대편 배에 불을 지를 수 있습니다. 
+(불을 지르면 배에 있는 재료들이 20초당 하나씩 사라집니다.)
+방화 쿨타임 : (불을 지른 순간부터) 100초</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">범위 내에 있는 적들을 모두 체포합니다.
 스킬에 걸린 적들은 모두 </t>
@@ -313,6 +347,7 @@
       </rPr>
       <t xml:space="preserve">상태에 걸립니다.
 속박상태에서는 움직일 수는 없지만 스킬은 사용가능합니다.
+속박 지속 시간 : 10초
 </t>
     </r>
     <r>
@@ -338,40 +373,6 @@
       </rPr>
       <t xml:space="preserve"> : 45초</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>디스랩을 하며
-적팀의 미션 수행을 한번 끊을 수 있습니다.
-쿨타임 : 50초</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">상대편의 배에 들어가 상대가 모은 재료들중 
-한 종류의 아이템을 뺴온다.
-쿨타임 : (상대편의 배를 나왔을 때부터) 30초
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공간이동
-원의 반지름 만큼 공간 이동이 가능합니다.
-이 스킬을 사용하면 벽도 넘을 수 있습니다.
-쿨타임 : 20초</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>연구소의 문을 닫을 수 있습니다.
-문은 5초 뒤 다시 열립니다.
-쿨타임 : (문이 열린 뒤) 20초</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>덫을 사용하여 상대팀의 이동을 방해합니다.
-덫 사용 쿨타임 : 20초
-덫을 10회 사용하면 상대편 배에 불을 지를 수 있습니다. 
-(불을 지르면 배에 있는 재료들이 20초당 하나씩 사라집니다.)
-방화 쿨타임 : (불을 지른 순간부터) 100초</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1618,8 +1619,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{840A6E5F-3F9B-4A4A-B8E1-A32E93BD1DA9}">
   <dimension ref="B3:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1788,7 +1789,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="2:8" ht="90.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:8" ht="144" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="1">
         <v>7</v>
       </c>
@@ -1805,7 +1806,7 @@
         <v>29</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="H10" s="1"/>
     </row>
@@ -1826,7 +1827,7 @@
         <v>36</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>53</v>
@@ -1849,7 +1850,7 @@
         <v>36</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>54</v>
@@ -1872,7 +1873,7 @@
         <v>35</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H13" s="1"/>
     </row>
@@ -1893,7 +1894,7 @@
         <v>35</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H14" s="1"/>
     </row>
@@ -1914,7 +1915,7 @@
         <v>35</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H15" s="1"/>
     </row>

--- a/_Prototype/Document/Excel 문서/캐릭터.xlsx
+++ b/_Prototype/Document/Excel 문서/캐릭터.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\2022\git\EscapeIsland\_Prototype\Document\Excel 문서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E23DF0B-8EB2-46D4-991F-7BAA537626BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C78353EA-17EB-49A1-8B67-1758033BEB16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{7C7DA98A-81B2-4BE7-8537-AA474E77B845}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="65">
   <si>
     <t>캐릭터 이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -373,6 +373,10 @@
       </rPr>
       <t xml:space="preserve"> : 45초</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이콘</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -493,6 +497,1599 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>342900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1647825</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1449805</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="그룹 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{330B0491-D117-0137-D5D0-08C6F6967F29}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="11268075" y="1038225"/>
+          <a:ext cx="1314450" cy="1106905"/>
+          <a:chOff x="905435" y="1438835"/>
+          <a:chExt cx="2895600" cy="2438400"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="3" name="Picture 2" descr="스포츠 달리는 사람 아이콘 - ico,png,icns,무료 아이콘 다운로드">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAAE82EC-C9E9-5A42-744C-73D21198BBEF}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="1362635" y="1438835"/>
+            <a:ext cx="2438400" cy="2438400"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4" name="순서도: 데이터 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31BEBAF1-56D2-479A-5282-AE8510F23881}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1057835" y="2366682"/>
+            <a:ext cx="914400" cy="193690"/>
+          </a:xfrm>
+          <a:prstGeom prst="flowChartInputOutput">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="ko-KR"/>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="5" name="순서도: 데이터 4">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C88C6B5D-7E71-0FF6-8C8E-2D4BF920DF93}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="905435" y="2627607"/>
+            <a:ext cx="914400" cy="193690"/>
+          </a:xfrm>
+          <a:prstGeom prst="flowChartInputOutput">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="ko-KR"/>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>133351</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1790701</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1743076</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 4" descr="160000+ 기타 아이콘 HD 사진 무료 다운로드 - Lovepik">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94636B19-35ED-E81E-36A2-355D485065A0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId3">
+                  <a14:imgEffect>
+                    <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000">
+                      <a14:foregroundMark x1="42667" y1="29333" x2="34222" y2="33333"/>
+                      <a14:foregroundMark x1="61778" y1="62222" x2="70222" y2="64000"/>
+                    </a14:backgroundRemoval>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="11068051" y="2552701"/>
+          <a:ext cx="1657350" cy="1657350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1771650</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1491414</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 6" descr="확장 가능한 그래픽 컴퓨터 아이콘 일러스트, 양궁 아이콘, cdr, 각도 png | PNGEgg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A884661-174D-2601-BA06-2BF9326980CF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId5">
+                  <a14:imgEffect>
+                    <a14:backgroundRemoval t="3922" b="94118" l="3239" r="95547">
+                      <a14:foregroundMark x1="9312" y1="60294" x2="10121" y2="72059"/>
+                      <a14:foregroundMark x1="15789" y1="66176" x2="3239" y2="67157"/>
+                      <a14:foregroundMark x1="23077" y1="94118" x2="33603" y2="94118"/>
+                      <a14:foregroundMark x1="69950" y1="79609" x2="73279" y2="79412"/>
+                      <a14:foregroundMark x1="64156" y1="79951" x2="64373" y2="79938"/>
+                      <a14:foregroundMark x1="61611" y1="80101" x2="62205" y2="80066"/>
+                      <a14:foregroundMark x1="60232" y1="80182" x2="60728" y2="80153"/>
+                      <a14:foregroundMark x1="56680" y1="80392" x2="59256" y2="80240"/>
+                      <a14:foregroundMark x1="87045" y1="48529" x2="87045" y2="48529"/>
+                      <a14:foregroundMark x1="95547" y1="47549" x2="95547" y2="47549"/>
+                      <a14:foregroundMark x1="61943" y1="3922" x2="61943" y2="3922"/>
+                      <a14:foregroundMark x1="75304" y1="77451" x2="75304" y2="77451"/>
+                      <a14:foregroundMark x1="30364" y1="48039" x2="30364" y2="48039"/>
+                      <a14:backgroundMark x1="64372" y1="81863" x2="64372" y2="81863"/>
+                      <a14:backgroundMark x1="64777" y1="79412" x2="64777" y2="79412"/>
+                      <a14:backgroundMark x1="66802" y1="80392" x2="66802" y2="80392"/>
+                      <a14:backgroundMark x1="68421" y1="80392" x2="68421" y2="80392"/>
+                      <a14:backgroundMark x1="68826" y1="79902" x2="68826" y2="79902"/>
+                      <a14:backgroundMark x1="66397" y1="79412" x2="66397" y2="79412"/>
+                      <a14:backgroundMark x1="64777" y1="81373" x2="62348" y2="80392"/>
+                      <a14:backgroundMark x1="65182" y1="81373" x2="65587" y2="79902"/>
+                      <a14:backgroundMark x1="62348" y1="82353" x2="60324" y2="78922"/>
+                      <a14:backgroundMark x1="60324" y1="80392" x2="59109" y2="79902"/>
+                      <a14:backgroundMark x1="68016" y1="80882" x2="67206" y2="77451"/>
+                      <a14:backgroundMark x1="63563" y1="81863" x2="70445" y2="78431"/>
+                    </a14:backgroundRemoval>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="11096625" y="4400550"/>
+          <a:ext cx="1609725" cy="1329489"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1752600</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1619250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8" descr="이모티콘 원숭이 이모티콘 컴퓨터 아이콘, 원숭이, 포유 동물, 얼굴, 동물 png | PNGWing">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD9BDB6D-B57A-A14F-506B-0A1B2D1DAC60}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId7">
+                  <a14:imgEffect>
+                    <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="11220450" y="6162675"/>
+          <a:ext cx="1466850" cy="1466850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1743075</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>1590675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="그림 9" descr="G마켓 - 사무라이목검 발도제 대나무 합기도 무술 죽도 죽검">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1124D9F-156A-1849-EC01-65B0886D2E9F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="11249025" y="7943850"/>
+          <a:ext cx="1428750" cy="1428750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>238125</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1571625</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>1504950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10" descr="치유 - 무료 발렌타인 데이개 아이콘">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60020D7D-A37E-6EFF-960C-0AEF5354042C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="11239500" y="9791700"/>
+          <a:ext cx="1266825" cy="1266825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>352425</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1619250</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>1425877</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 12" descr="체포, 아내가 아이콘 에 Unocha">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19F0B831-8616-1130-20EE-918810B4B8B8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="11201400" y="11677650"/>
+          <a:ext cx="1352550" cy="1073452"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1685925</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>1571625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="그림 12" descr="Speaking, Talking PNG Transparent Background, Free Download #33631 -  FreeIconsPNG">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB1BDCB3-3764-89B7-7E07-B9E6463A3BEE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="11268075" y="13315950"/>
+          <a:ext cx="1352550" cy="1352550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>457199</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>238125</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1666874</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>1514475</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="14" name="그룹 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A91866B0-6339-FA2A-E5F5-6024AD3A58F4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="11391899" y="15106650"/>
+          <a:ext cx="1209675" cy="1276350"/>
+          <a:chOff x="6658348" y="4490646"/>
+          <a:chExt cx="1027954" cy="993295"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="15" name="Picture 16" descr="트래핑 그리스 트랩 컴퓨터 아이콘 쥐 덫 기호, 상징, 기타, 로고 png | PNGEgg">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{937CD3EF-0A02-3E50-509F-2C87B0464EEA}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12" cstate="print">
+            <a:extLst>
+              <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+                <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                  <a14:imgLayer r:embed="rId13">
+                    <a14:imgEffect>
+                      <a14:backgroundRemoval t="9483" b="89943" l="5747" r="94540">
+                        <a14:foregroundMark x1="21839" y1="51437" x2="21839" y2="51437"/>
+                        <a14:foregroundMark x1="60057" y1="36494" x2="60057" y2="36494"/>
+                        <a14:foregroundMark x1="51149" y1="46264" x2="51149" y2="46264"/>
+                        <a14:foregroundMark x1="89943" y1="47126" x2="89943" y2="47126"/>
+                        <a14:foregroundMark x1="87931" y1="82759" x2="87931" y2="82759"/>
+                        <a14:foregroundMark x1="93678" y1="48276" x2="93678" y2="48276"/>
+                        <a14:foregroundMark x1="6034" y1="75575" x2="6034" y2="75575"/>
+                        <a14:foregroundMark x1="94540" y1="77874" x2="94540" y2="77874"/>
+                      </a14:backgroundRemoval>
+                    </a14:imgEffect>
+                  </a14:imgLayer>
+                </a14:imgProps>
+              </a:ext>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="6658348" y="4490646"/>
+            <a:ext cx="528265" cy="528265"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="16" name="직선 연결선 15">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37DAFA3B-DA1B-142D-A086-532718393036}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr>
+            <a:cxnSpLocks/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="6858000" y="4676775"/>
+            <a:ext cx="600075" cy="762000"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="28575"/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="17" name="그래픽 14" descr="불꽃 단색으로 채워진">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4790115A-11CC-6A49-0AAE-A956FB87CBB2}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+              <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId15"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7186612" y="4984251"/>
+            <a:ext cx="499690" cy="499690"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>238125</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1704975</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>1600200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="그림 17" descr="도척'의 도道 … '그네'의 도道 : 네이버 블로그">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03751642-5455-8159-D170-3714939B8ECE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="11277600" y="16878300"/>
+          <a:ext cx="1362075" cy="1362075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>323850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1552575</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>1438275</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="그림 18" descr="순간이동 아이콘 에 Game Icons">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5660D932-1B44-3E00-CAD6-A51628E13B6A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="11372850" y="18735675"/>
+          <a:ext cx="1114425" cy="1114425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>771525</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>466725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>301025</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>1240354</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="26" name="그룹 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9314A239-E36D-DA7E-A0D4-C3DF0B2BA847}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="10782300" y="20650200"/>
+          <a:ext cx="2396525" cy="773629"/>
+          <a:chOff x="8681085" y="4281596"/>
+          <a:chExt cx="2396525" cy="773629"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="27" name="Picture 18" descr="컴퓨터 아이콘 문, 실루엣 테두리, 각도, 가구, 건물 png | PNGWing">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0C6D7FE-7617-5823-481A-E57B04972BB2}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18" cstate="print">
+            <a:extLst>
+              <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+                <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                  <a14:imgLayer r:embed="rId19">
+                    <a14:imgEffect>
+                      <a14:backgroundRemoval t="2344" b="98633" l="10000" r="90000">
+                        <a14:foregroundMark x1="30652" y1="48828" x2="30652" y2="48828"/>
+                        <a14:foregroundMark x1="37065" y1="2344" x2="37065" y2="2344"/>
+                        <a14:foregroundMark x1="69783" y1="91016" x2="69783" y2="91016"/>
+                        <a14:foregroundMark x1="30761" y1="98633" x2="30761" y2="98633"/>
+                      </a14:backgroundRemoval>
+                    </a14:imgEffect>
+                  </a14:imgLayer>
+                </a14:imgProps>
+              </a:ext>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="8681085" y="4318436"/>
+            <a:ext cx="1287780" cy="716678"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="28" name="Picture 20" descr="컴퓨터 아이콘 문 창 건물, 문, 각도, 가구 png | PNGEgg">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D562C0FC-1585-6E08-8784-B021C26BEA6D}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20" cstate="print">
+            <a:extLst>
+              <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+                <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                  <a14:imgLayer r:embed="rId21">
+                    <a14:imgEffect>
+                      <a14:backgroundRemoval t="6131" b="94503" l="10000" r="90000">
+                        <a14:foregroundMark x1="51222" y1="6342" x2="51222" y2="6342"/>
+                        <a14:foregroundMark x1="50111" y1="94503" x2="50111" y2="94503"/>
+                      </a14:backgroundRemoval>
+                    </a14:imgEffect>
+                  </a14:imgLayer>
+                </a14:imgProps>
+              </a:ext>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="9605589" y="4281596"/>
+            <a:ext cx="1472021" cy="773629"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="29" name="TextBox 16">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F63D5BB6-9FD5-A09E-E9FA-7B318B763E20}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9658826" y="4728421"/>
+            <a:ext cx="415498" cy="230832"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr wrap="square" rtlCol="0">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="ko-KR"/>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US" sz="900"/>
+              <a:t>변경</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="30" name="직선 화살표 연결선 29">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AF00326-2DDF-8942-468C-427DBE0F45BA}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr>
+            <a:cxnSpLocks/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9753600" y="4668410"/>
+            <a:ext cx="259708" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="31" name="TextBox 23">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB15A952-1DAE-98AE-05BD-57471125FC52}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9601919" y="4415707"/>
+            <a:ext cx="529312" cy="215444"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr wrap="square" rtlCol="0">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="ko-KR"/>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US" sz="800"/>
+              <a:t>사용 시</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1617,10 +3214,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{840A6E5F-3F9B-4A4A-B8E1-A32E93BD1DA9}">
-  <dimension ref="B3:H21"/>
+  <dimension ref="B3:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1631,10 +3228,10 @@
     <col min="5" max="6" width="13.25" customWidth="1"/>
     <col min="7" max="7" width="65.5" customWidth="1"/>
     <col min="8" max="8" width="12.125" customWidth="1"/>
-    <col min="9" max="9" width="8.75" customWidth="1"/>
+    <col min="9" max="9" width="25.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1656,8 +3253,11 @@
       <c r="H3" s="1" t="s">
         <v>52</v>
       </c>
+      <c r="I3" s="1" t="s">
+        <v>64</v>
+      </c>
     </row>
-    <row r="4" spans="2:8" ht="90.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:9" ht="139.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="1">
         <v>1</v>
       </c>
@@ -1679,8 +3279,9 @@
       <c r="H4" s="1" t="s">
         <v>53</v>
       </c>
+      <c r="I4" s="5"/>
     </row>
-    <row r="5" spans="2:8" ht="90.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:9" ht="139.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="1">
         <v>2</v>
       </c>
@@ -1700,8 +3301,9 @@
         <v>55</v>
       </c>
       <c r="H5" s="1"/>
+      <c r="I5" s="5"/>
     </row>
-    <row r="6" spans="2:8" ht="90.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:9" ht="139.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="1">
         <v>3</v>
       </c>
@@ -1721,8 +3323,9 @@
         <v>56</v>
       </c>
       <c r="H6" s="1"/>
+      <c r="I6" s="5"/>
     </row>
-    <row r="7" spans="2:8" ht="90.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:9" ht="139.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="1">
         <v>4</v>
       </c>
@@ -1744,8 +3347,9 @@
       <c r="H7" s="1" t="s">
         <v>53</v>
       </c>
+      <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="2:8" ht="90.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:9" ht="139.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="1">
         <v>5</v>
       </c>
@@ -1765,8 +3369,9 @@
         <v>57</v>
       </c>
       <c r="H8" s="1"/>
+      <c r="I8" s="5"/>
     </row>
-    <row r="9" spans="2:8" ht="90.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:9" ht="139.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="1">
         <v>6</v>
       </c>
@@ -1788,8 +3393,9 @@
       <c r="H9" s="1" t="s">
         <v>53</v>
       </c>
+      <c r="I9" s="5"/>
     </row>
-    <row r="10" spans="2:8" ht="144" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:9" ht="139.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="1">
         <v>7</v>
       </c>
@@ -1809,8 +3415,9 @@
         <v>63</v>
       </c>
       <c r="H10" s="1"/>
+      <c r="I10" s="5"/>
     </row>
-    <row r="11" spans="2:8" ht="90.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:9" ht="139.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="1">
         <v>8</v>
       </c>
@@ -1833,7 +3440,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="113.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:9" ht="139.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="1">
         <v>9</v>
       </c>
@@ -1855,8 +3462,9 @@
       <c r="H12" s="2" t="s">
         <v>54</v>
       </c>
+      <c r="I12" s="5"/>
     </row>
-    <row r="13" spans="2:8" ht="126.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:9" ht="139.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="1">
         <v>10</v>
       </c>
@@ -1876,8 +3484,9 @@
         <v>59</v>
       </c>
       <c r="H13" s="1"/>
+      <c r="I13" s="5"/>
     </row>
-    <row r="14" spans="2:8" ht="113.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:9" ht="139.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="1">
         <v>11</v>
       </c>
@@ -1897,8 +3506,9 @@
         <v>60</v>
       </c>
       <c r="H14" s="1"/>
+      <c r="I14" s="5"/>
     </row>
-    <row r="15" spans="2:8" ht="92.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:9" ht="139.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="1">
         <v>12</v>
       </c>
@@ -1918,8 +3528,9 @@
         <v>61</v>
       </c>
       <c r="H15" s="1"/>
+      <c r="I15" s="5"/>
     </row>
-    <row r="16" spans="2:8" ht="92.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:9" ht="139.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="1">
         <v>13</v>
       </c>
@@ -1929,8 +3540,9 @@
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
       <c r="H16" s="1"/>
+      <c r="I16" s="5"/>
     </row>
-    <row r="17" spans="2:8" ht="92.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:9" ht="139.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="1">
         <v>14</v>
       </c>
@@ -1940,8 +3552,9 @@
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
       <c r="H17" s="1"/>
+      <c r="I17" s="5"/>
     </row>
-    <row r="18" spans="2:8" ht="92.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:9" ht="139.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="1">
         <v>15</v>
       </c>
@@ -1951,8 +3564,9 @@
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
       <c r="H18" s="1"/>
+      <c r="I18" s="5"/>
     </row>
-    <row r="19" spans="2:8" ht="92.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:9" ht="139.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="1">
         <v>16</v>
       </c>
@@ -1962,8 +3576,9 @@
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
       <c r="H19" s="1"/>
+      <c r="I19" s="5"/>
     </row>
-    <row r="20" spans="2:8" ht="92.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:9" ht="139.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="1">
         <v>17</v>
       </c>
@@ -1973,8 +3588,9 @@
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
       <c r="H20" s="1"/>
+      <c r="I20" s="5"/>
     </row>
-    <row r="21" spans="2:8" ht="92.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:9" ht="139.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="1">
         <v>18</v>
       </c>
@@ -1984,11 +3600,13 @@
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
       <c r="H21" s="1"/>
+      <c r="I21" s="5"/>
     </row>
   </sheetData>
   <autoFilter ref="F3:F15" xr:uid="{840A6E5F-3F9B-4A4A-B8E1-A32E93BD1DA9}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/_Prototype/Document/Excel 문서/캐릭터.xlsx
+++ b/_Prototype/Document/Excel 문서/캐릭터.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\2022\git\EscapeIsland\_Prototype\Document\Excel 문서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C78353EA-17EB-49A1-8B67-1758033BEB16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41AECE86-771C-4CA1-95D9-2BF430680F14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{7C7DA98A-81B2-4BE7-8537-AA474E77B845}"/>
   </bookViews>
@@ -1343,15 +1343,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>457199</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>238125</xdr:rowOff>
+      <xdr:colOff>190499</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>1724024</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>1666874</xdr:colOff>
+      <xdr:colOff>1809750</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>1514475</xdr:rowOff>
+      <xdr:rowOff>1638299</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -1366,8 +1366,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11391899" y="15106650"/>
-          <a:ext cx="1209675" cy="1276350"/>
+          <a:off x="11125199" y="14820899"/>
+          <a:ext cx="1619251" cy="1685925"/>
           <a:chOff x="6658348" y="4490646"/>
           <a:chExt cx="1027954" cy="993295"/>
         </a:xfrm>
@@ -3216,8 +3216,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{840A6E5F-3F9B-4A4A-B8E1-A32E93BD1DA9}">
   <dimension ref="B3:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView tabSelected="1" topLeftCell="B3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
